--- a/forTest.xlsx
+++ b/forTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsurutashuichi/PycharmProjects/Json_Creater/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsurutashuichi/PycharmProjects/pythonProject2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8BFD53-8EC8-8548-9BBC-BB407DF5A45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C370B5A-9022-4645-B2C0-F88C80DD91C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="740" windowWidth="28300" windowHeight="17260" xr2:uid="{5502DDB4-F009-EB4A-9811-F296AAA2750A}"/>
+    <workbookView xWindow="-30540" yWindow="3740" windowWidth="28300" windowHeight="17260" xr2:uid="{5502DDB4-F009-EB4A-9811-F296AAA2750A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,193 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>B1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>E1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>dog.犬.1-1.jpg</t>
   </si>
@@ -232,6 +46,212 @@
   </si>
   <si>
     <t>dog.犬.2-1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通し番号</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">トオシ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">バンゴウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像のファイル名</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガゾウノ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イロ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出身</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シュッシン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加情報１</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加情報２</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイトウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白色</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シロ </t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">イロ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イギリス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>躍動感のある走り</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ヤクドウカンノ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ハシリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芝生の上を走っている</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シバフノ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ウエヲ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ハシッテイル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この犬をペットにしたいですか？</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">イヌヲ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい、この犬をペットにしたいです。柔らかそうな毛並みがとても好印象です。</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">イヌヲ </t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">ヤワラカソウナ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">ケナミ </t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t xml:space="preserve">コウインショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>茶色</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">チャイロ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アメリカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>首をかしげている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伏せのポーズをとっている</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">フセヲ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい、この犬をペットにしたいです。可愛らしい顔がとても好印象です。</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">イヌヲ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">カワイラシイ </t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t xml:space="preserve">カオヲ </t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t xml:space="preserve">コウインショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>茶色</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">チャイロ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ニホン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>笑っている</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ワラッテイル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>首輪をしている</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">クビワヲ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいえ、この犬をペットにしたくないです。悪くはないのですが、他にもっと好きな犬種があります。</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">イヌヲ </t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t xml:space="preserve">ワルクハ </t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t xml:space="preserve">ホカニ </t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t xml:space="preserve">スキナ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">ケンシュガ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -278,9 +298,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,228 +642,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A571AB41-3919-654B-9E01-F4789B52B75B}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="5" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="48.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="42">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="42">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="42">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
         <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
